--- a/HRMS/src/main/resources/ExcelReader/TestData.xlsx
+++ b/HRMS/src/main/resources/ExcelReader/TestData.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sanoob/Documents/workspace1/HRMS/src/main/resources/ExcelReader/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sanoob/git/HRMS/HRMS/src/main/resources/ExcelReader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B631B78C-B82D-3B45-8B5B-57D2787D78BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99E574-5680-BB4B-8FB9-43F915E93907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16360" activeTab="2" xr2:uid="{CDCDBA67-5F4C-0E43-BD18-6ABE405615A2}"/>
+    <workbookView xWindow="6960" yWindow="500" windowWidth="28040" windowHeight="16360" activeTab="2" xr2:uid="{CDCDBA67-5F4C-0E43-BD18-6ABE405615A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="OrganizationSheet" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>admin123</t>
-  </si>
-  <si>
-    <t>Savings</t>
   </si>
   <si>
     <t>IBS</t>
@@ -54,7 +51,7 @@
     <t>http://demo</t>
   </si>
   <si>
-    <t>Chennai</t>
+    <t>Kochi</t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,62 +464,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3164E36D-2EEB-8840-9C5E-F3A5689A2AF2}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1234</v>
+      </c>
+      <c r="C1">
+        <v>9678990</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1234</v>
-      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>689456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>967889900</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>578754</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{9E56F5AA-5A3D-8A41-A7B9-00A36CF1A9AD}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{34D9276E-39EF-E142-8CD0-95A7BCFCCA8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -530,30 +531,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF8A7EA-12CE-734B-A7ED-17B99FCED8EF}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>123456</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
